--- a/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М3, Ф4, М-2-1, Р3, Л2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
   <si>
     <t>Понедельник</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Виноградова Марианна Сергеевна</t>
   </si>
   <si>
+    <t>Напольских 11.6</t>
+  </si>
+  <si>
     <t>Предмет</t>
   </si>
   <si>
@@ -41,7 +44,16 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>М-11-3</t>
+  </si>
+  <si>
+    <t>Жигулин</t>
+  </si>
+  <si>
+    <t>Zoom</t>
   </si>
   <si>
     <t>Информатика</t>
@@ -53,30 +65,18 @@
     <t>Афонин</t>
   </si>
   <si>
-    <t>ОКНО</t>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
   </si>
   <si>
     <t>Геометрия</t>
   </si>
   <si>
-    <t>М-11-3</t>
-  </si>
-  <si>
     <t>Рязанский</t>
   </si>
   <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
-    <t>обществознание</t>
-  </si>
-  <si>
-    <t>Жигулин</t>
-  </si>
-  <si>
     <t>Вторник</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
     <t>Р-11-3, Р-11-2</t>
   </si>
   <si>
-    <t>см.таблицу после пятницы</t>
-  </si>
-  <si>
     <t>Биология</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
     <t>Хамидова</t>
   </si>
   <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
     <t>Физика</t>
   </si>
   <si>
@@ -158,23 +158,20 @@
     <t>Четверг</t>
   </si>
   <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
     <t>Пятница</t>
   </si>
   <si>
     <t>Р-11-2, Р-11-3</t>
-  </si>
-  <si>
-    <t>Козодой/Щербина</t>
-  </si>
-  <si>
-    <t>205/206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,18 +181,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +239,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -270,19 +329,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,16 +383,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -321,43 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7820025" cy="2124075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="12163425"/>
-          <a:ext cx="7820025" cy="2124075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,29 +703,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист29"/>
-  <dimension ref="A1:G1000"/>
+  <sheetPr codeName="Лист27"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="1"/>
+    <col min="8" max="8" width="28.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -656,158 +737,155 @@
       <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -816,175 +894,166 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E20" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="E23" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -993,173 +1062,152 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="B31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>6</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>3</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>4</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>5</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>6</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="7">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="E33" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>7</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>8</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -1168,327 +1216,323 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>2</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="B41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>3</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="B42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>4</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="B43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>2</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>4</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>5</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="B44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>6</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="B45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>7</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="B46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>8</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>9</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>2</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="B53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>3</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="B54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>4</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>1</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>3</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="B57" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D57" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>7</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>8</v>
       </c>
-      <c r="E54" s="10">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>4</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="7">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>5</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>6</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>7</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>8</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>9</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>9</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,18 +2864,23 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D59:E59"/>
+  <mergeCells count="14">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М3, Ф4, М-2-1, Р3, Л2" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,18 +253,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,19 +395,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,8 +685,8 @@
   <sheetPr codeName="Лист27"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,16 +1125,16 @@
       <c r="A32" s="8">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1233,16 +1212,16 @@
       <c r="A40" s="8">
         <v>1</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1250,16 +1229,16 @@
       <c r="A41" s="8">
         <v>2</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1440,16 +1419,16 @@
       <c r="A55" s="8">
         <v>4</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1457,16 +1436,16 @@
       <c r="A56" s="8">
         <v>5</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1474,34 +1453,34 @@
       <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="22"/>
+      <c r="E57" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>7</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="18" t="s">
         <v>9</v>
       </c>
     </row>

--- a/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М3, Ф4, М-2-1, Р3, Л2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М3, Ф4, М-2-1, Р3, Л2" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
   <si>
+    <t>ФИО</t>
+  </si>
+  <si>
     <t>Понедельник</t>
   </si>
   <si>
     <t>Виноградова Марианна Сергеевна</t>
-  </si>
-  <si>
-    <t>Напольских 11.6</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -181,38 +181,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -220,17 +215,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,29 +232,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -301,106 +315,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -685,822 +638,822 @@
   <sheetPr codeName="Лист27"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="26" width="11.125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="9">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>5</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>6</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>7</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>8</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>9</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="9">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="9">
         <v>1</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>2</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <v>3</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>4</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <v>5</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>6</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>7</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>8</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>9</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="9">
+        <v>9</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>1</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>2</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>3</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>4</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>5</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>6</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="19"/>
+      <c r="E57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>7</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <v>8</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>9</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="9">
+        <v>9</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
